--- a/mitpp1/Results.xlsx
+++ b/mitpp1/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaProjects\mitpp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F784FF60-3928-48A0-AA36-C5F4C4EC221C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478847F9-51FB-406C-B35C-BDC4857F8743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46DBEC8A-408D-4EBC-9CD2-AACD9A0012DD}"/>
   </bookViews>
@@ -183,69 +183,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C576-4BA8-8915-3640DC569EC1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -265,34 +204,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2667</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2695</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3515</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3374</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3661</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>794</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1003</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1158</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1250</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1381</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -323,6 +262,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -387,6 +382,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -430,37 +481,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -590,69 +610,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6B92-4F56-92A1-5C520FA1978E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -672,34 +631,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>13103</c:v>
+                  <c:v>2452</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13654</c:v>
+                  <c:v>2623</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14910</c:v>
+                  <c:v>2787</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17120</c:v>
+                  <c:v>3167</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16997</c:v>
+                  <c:v>3345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3806</c:v>
+                  <c:v>3712</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4587</c:v>
+                  <c:v>4612</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5153</c:v>
+                  <c:v>5546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5864</c:v>
+                  <c:v>7169</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6840</c:v>
+                  <c:v>7215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -730,6 +689,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -794,6 +809,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -837,37 +908,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -988,69 +1028,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$A$2:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B67-4888-9801-F0AE675A6219}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -1070,34 +1049,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>541</c:v>
+                  <c:v>499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>532</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>507</c:v>
+                  <c:v>496</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>540</c:v>
+                  <c:v>554</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>541</c:v>
+                  <c:v>666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>544</c:v>
+                  <c:v>631</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>697</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1043</c:v>
+                  <c:v>687</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>792</c:v>
+                  <c:v>740</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>760</c:v>
+                  <c:v>860</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,6 +1107,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1192,6 +1227,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-UA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1235,37 +1326,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-UA"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2983,7 +3043,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
@@ -3390,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C63B856-56F5-4441-AF1F-48F027F2A915}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3412,13 +3472,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2667</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>13103</v>
+        <v>2452</v>
       </c>
       <c r="D2">
-        <v>541</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3426,13 +3486,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2695</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>13654</v>
+        <v>2623</v>
       </c>
       <c r="D3">
-        <v>532</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3440,13 +3500,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3515</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>14910</v>
+        <v>2787</v>
       </c>
       <c r="D4">
-        <v>507</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -3454,13 +3514,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>3374</v>
+        <v>44</v>
       </c>
       <c r="C5">
-        <v>17120</v>
+        <v>3167</v>
       </c>
       <c r="D5">
-        <v>540</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -3468,13 +3528,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3661</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>16997</v>
+        <v>3345</v>
       </c>
       <c r="D6">
-        <v>541</v>
+        <v>666</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -3482,13 +3542,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>794</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>3806</v>
+        <v>3712</v>
       </c>
       <c r="D7">
-        <v>544</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -3496,13 +3556,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1003</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>4587</v>
+        <v>4612</v>
       </c>
       <c r="D8">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -3510,13 +3570,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1158</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>5153</v>
+        <v>5546</v>
       </c>
       <c r="D9">
-        <v>1043</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -3524,13 +3584,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1250</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>5864</v>
+        <v>7169</v>
       </c>
       <c r="D10">
-        <v>792</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -3538,13 +3598,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1381</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>6840</v>
+        <v>7215</v>
       </c>
       <c r="D11">
-        <v>760</v>
+        <v>860</v>
       </c>
     </row>
   </sheetData>
